--- a/test_files/enyne_test.xlsx
+++ b/test_files/enyne_test.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Struc6-NM</t>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
+    <t xml:space="preserve">Product</t>
   </si>
   <si>
     <t xml:space="preserve">Cu-PMe3</t>
@@ -296,10 +296,10 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.33"/>
